--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>671294.9045161508</v>
+        <v>667467.2974691067</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33305450.46443976</v>
+        <v>33305450.46443978</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6063412.656816711</v>
+        <v>6063412.656816706</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4750198.387509116</v>
+        <v>4750198.387509117</v>
       </c>
     </row>
     <row r="11">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="E5" t="n">
-        <v>13.48781516894235</v>
+        <v>6.869905094384108</v>
       </c>
       <c r="F5" t="n">
-        <v>6.869905094384316</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="U6" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="V6" t="n">
-        <v>11.88006760080442</v>
+        <v>11.88006760080421</v>
       </c>
       <c r="W6" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.48781516894235</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13.48781516894235</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11.88006760080421</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.88006760080442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
+        <v>17.8422975499833</v>
+      </c>
+      <c r="Y10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>373.6251625596989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>163.4303819052</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>82.77350497189194</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>163.4254817987933</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,10 +1615,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>65.45709821928079</v>
       </c>
       <c r="X14" t="n">
-        <v>33.19028616985674</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>23.80999130968864</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>108.3522384787132</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -1821,10 +1821,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>141.8733179420228</v>
       </c>
       <c r="F17" t="n">
-        <v>234.3599588242721</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>86.38976318987949</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>214.5646102646769</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,10 +2092,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>174.1520217478749</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>176.1446634785932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>99.88620450708505</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>49.34995949258681</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2329,10 +2329,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>8.659748599320173</v>
       </c>
       <c r="Y23" t="n">
-        <v>131.3813927873026</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2532,7 +2532,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317437</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>394.207402867276</v>
       </c>
       <c r="G26" t="n">
-        <v>205.7900525208922</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>70.3865847699456</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>276.5847039555177</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,16 +3037,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>128.009815351564</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>122.7436762789001</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>239.824751855628</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3271,16 +3271,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>360.0565073459062</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>354.7572717101465</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06903496020917486</v>
+        <v>86.38976318987949</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>349.1016763081806</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,13 +3511,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>128.9395398500428</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,13 +3669,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>6.122931086761096</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>174.1692853910711</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>57.17720776273082</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>53.1911703338642</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>11.45461388085811</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>137.6351379060686</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>333.3838141281618</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>106.4438755113824</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.64237901485546</v>
+        <v>21.64237901485498</v>
       </c>
       <c r="C5" t="n">
-        <v>21.64237901485546</v>
+        <v>21.64237901485498</v>
       </c>
       <c r="D5" t="n">
-        <v>21.64237901485546</v>
+        <v>8.018323288650832</v>
       </c>
       <c r="E5" t="n">
-        <v>8.018323288651061</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="F5" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="G5" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="H5" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="I5" t="n">
-        <v>2.319676963882214</v>
+        <v>2.319676963882165</v>
       </c>
       <c r="J5" t="n">
-        <v>5.950292136425618</v>
+        <v>5.950292136425505</v>
       </c>
       <c r="K5" t="n">
-        <v>11.39164314017434</v>
+        <v>11.39164314017413</v>
       </c>
       <c r="L5" t="n">
-        <v>18.14212021749381</v>
+        <v>18.14212021749347</v>
       </c>
       <c r="M5" t="n">
-        <v>25.65332664369581</v>
+        <v>25.65332664369534</v>
       </c>
       <c r="N5" t="n">
-        <v>33.28607224259831</v>
+        <v>33.2860722425977</v>
       </c>
       <c r="O5" t="n">
-        <v>40.49345747245881</v>
+        <v>40.49345747245807</v>
       </c>
       <c r="P5" t="n">
-        <v>46.64479401739416</v>
+        <v>46.64479401739331</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.26419158394444</v>
+        <v>51.2641915839435</v>
       </c>
       <c r="R5" t="n">
-        <v>53.9512606757694</v>
+        <v>53.95126067576843</v>
       </c>
       <c r="S5" t="n">
-        <v>53.9512606757694</v>
+        <v>53.95126067576843</v>
       </c>
       <c r="T5" t="n">
-        <v>53.9512606757694</v>
+        <v>53.95126067576843</v>
       </c>
       <c r="U5" t="n">
-        <v>53.9512606757694</v>
+        <v>53.95126067576843</v>
       </c>
       <c r="V5" t="n">
-        <v>53.9512606757694</v>
+        <v>53.95126067576843</v>
       </c>
       <c r="W5" t="n">
-        <v>53.13621012720677</v>
+        <v>53.1362101272058</v>
       </c>
       <c r="X5" t="n">
-        <v>39.51215440100238</v>
+        <v>39.51215440100165</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.26643474105985</v>
+        <v>35.26643474105913</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="C6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="D6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="E6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="F6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="G6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="H6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="I6" t="n">
-        <v>1.867038804705171</v>
+        <v>14.43196223076805</v>
       </c>
       <c r="J6" t="n">
-        <v>15.2199758219581</v>
+        <v>16.59433175533096</v>
       </c>
       <c r="K6" t="n">
-        <v>18.91580975658666</v>
+        <v>20.29016568995946</v>
       </c>
       <c r="L6" t="n">
-        <v>23.88531457593064</v>
+        <v>25.25967050930335</v>
       </c>
       <c r="M6" t="n">
-        <v>29.68449230370564</v>
+        <v>31.05884823707824</v>
       </c>
       <c r="N6" t="n">
-        <v>35.63715700994296</v>
+        <v>37.01151294331545</v>
       </c>
       <c r="O6" t="n">
-        <v>41.08268226870374</v>
+        <v>42.45703820207614</v>
       </c>
       <c r="P6" t="n">
-        <v>45.45319637484652</v>
+        <v>46.82755230821883</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.37476931216976</v>
+        <v>52.5302262303057</v>
       </c>
       <c r="R6" t="n">
-        <v>53.9512606757694</v>
+        <v>53.95126067576843</v>
       </c>
       <c r="S6" t="n">
-        <v>53.9512606757694</v>
+        <v>53.95126067576843</v>
       </c>
       <c r="T6" t="n">
-        <v>40.32720494956501</v>
+        <v>40.32720494956428</v>
       </c>
       <c r="U6" t="n">
-        <v>26.70314922336061</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="V6" t="n">
-        <v>14.70308093971978</v>
+        <v>14.70308093971952</v>
       </c>
       <c r="W6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="X6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.70308093971978</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="C7" t="n">
-        <v>14.70308093971978</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="D7" t="n">
-        <v>1.079025213515388</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="E7" t="n">
-        <v>1.079025213515388</v>
+        <v>14.70308093971952</v>
       </c>
       <c r="F7" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="G7" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="H7" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="I7" t="n">
-        <v>1.079025213515388</v>
+        <v>1.079025213515369</v>
       </c>
       <c r="J7" t="n">
-        <v>2.435626362226659</v>
+        <v>2.435626362226615</v>
       </c>
       <c r="K7" t="n">
-        <v>4.664938780965251</v>
+        <v>4.664938780965167</v>
       </c>
       <c r="L7" t="n">
-        <v>7.517691151548267</v>
+        <v>7.517691151548132</v>
       </c>
       <c r="M7" t="n">
-        <v>20.87062816880119</v>
+        <v>10.52551854093067</v>
       </c>
       <c r="N7" t="n">
-        <v>23.80693614568905</v>
+        <v>13.89244962401037</v>
       </c>
       <c r="O7" t="n">
-        <v>37.15987316294198</v>
+        <v>27.24538664126306</v>
       </c>
       <c r="P7" t="n">
-        <v>40.59832365851648</v>
+        <v>40.59832365851575</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.9512606757694</v>
+        <v>53.95126067576843</v>
       </c>
       <c r="R7" t="n">
-        <v>40.32720494956501</v>
+        <v>40.32720494956428</v>
       </c>
       <c r="S7" t="n">
-        <v>40.32720494956501</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="T7" t="n">
-        <v>40.32720494956501</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="U7" t="n">
-        <v>40.32720494956501</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="V7" t="n">
-        <v>40.32720494956501</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="W7" t="n">
-        <v>40.32720494956501</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="X7" t="n">
-        <v>40.32720494956501</v>
+        <v>26.70314922336014</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.32713666592418</v>
+        <v>26.70314922336014</v>
       </c>
     </row>
     <row r="8">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
-        <v>127.8182329816055</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4883,10 +4883,10 @@
         <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>59.89648401348967</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>71.1588637208333</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
         <v>86.30252310133811</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.06004933219679</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>63.06004933219679</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>63.06004933219679</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>63.06004933219679</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>63.06004933219679</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4965,22 +4965,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>51.00047617709629</v>
+        <v>54.2754184869894</v>
       </c>
       <c r="L10" t="n">
-        <v>59.69371861623731</v>
+        <v>95.17727150404147</v>
       </c>
       <c r="M10" t="n">
-        <v>68.85952388578045</v>
+        <v>136.0791245210935</v>
       </c>
       <c r="N10" t="n">
-        <v>77.80738679259596</v>
+        <v>145.026987427909</v>
       </c>
       <c r="O10" t="n">
-        <v>86.07218644061874</v>
+        <v>153.2917870759318</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>160.3637509630746</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4989,25 +4989,25 @@
         <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="T10" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="U10" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="V10" t="n">
+        <v>146.5247019534642</v>
+      </c>
+      <c r="W10" t="n">
         <v>104.7923756428305</v>
       </c>
-      <c r="T10" t="n">
-        <v>63.06004933219679</v>
-      </c>
-      <c r="U10" t="n">
-        <v>63.06004933219679</v>
-      </c>
-      <c r="V10" t="n">
-        <v>63.06004933219679</v>
-      </c>
-      <c r="W10" t="n">
-        <v>63.06004933219679</v>
-      </c>
       <c r="X10" t="n">
-        <v>63.06004933219679</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.06004933219679</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1955.47212285877</v>
+        <v>1746.493890118551</v>
       </c>
       <c r="C11" t="n">
-        <v>1955.47212285877</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001359</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435811</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2154.780013818898</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>2154.780013818898</v>
       </c>
       <c r="X11" t="n">
-        <v>1955.47212285877</v>
+        <v>2154.780013818898</v>
       </c>
       <c r="Y11" t="n">
-        <v>1955.47212285877</v>
+        <v>1746.493890118551</v>
       </c>
     </row>
     <row r="12">
@@ -5135,7 +5135,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>807.9003835041292</v>
+        <v>584.9656139994286</v>
       </c>
       <c r="C13" t="n">
-        <v>724.2907825224202</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="D13" t="n">
-        <v>558.4127897239429</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>828.1746199579906</v>
       </c>
       <c r="M13" t="n">
-        <v>1690.512214359095</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150537</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675982</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1808.577570614173</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1521.622062484603</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1249.595658070895</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1004.203903404308</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041292</v>
+        <v>776.7842327184158</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.2588091910869</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C14" t="n">
-        <v>483.1163363745102</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895473</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895473</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
         <v>276.0532770435809</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1785.939375850675</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W14" t="n">
-        <v>1381.083921261709</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X14" t="n">
-        <v>1347.558379675995</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y14" t="n">
-        <v>1347.558379675995</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="15">
@@ -5339,40 +5339,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.6552262893761</v>
+        <v>1036.997366370204</v>
       </c>
       <c r="C16" t="n">
-        <v>299.0935147726011</v>
+        <v>864.4356548534284</v>
       </c>
       <c r="D16" t="n">
-        <v>275.0430185001883</v>
+        <v>698.5576620549512</v>
       </c>
       <c r="E16" t="n">
-        <v>275.0430185001883</v>
+        <v>528.7996583056884</v>
       </c>
       <c r="F16" t="n">
-        <v>275.0430185001883</v>
+        <v>352.0926042674446</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>862.082053811994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M16" t="n">
-        <v>992.6864461505235</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1701.62741044167</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1456.235655775082</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>1228.815985089191</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>553.6553341406727</v>
+        <v>1492.432620541498</v>
       </c>
       <c r="C17" t="n">
-        <v>553.6553341406727</v>
+        <v>1054.290147724922</v>
       </c>
       <c r="D17" t="n">
-        <v>553.6553341406727</v>
+        <v>618.380362899366</v>
       </c>
       <c r="E17" t="n">
-        <v>553.6553341406727</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1785.939375850675</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W17" t="n">
-        <v>1381.083921261709</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X17" t="n">
-        <v>961.9414578410193</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y17" t="n">
-        <v>553.6553341406727</v>
+        <v>1492.432620541498</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092375</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827552</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789086</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1973.653814855378</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2182.403674944107</v>
+        <v>1530.944687111453</v>
       </c>
       <c r="C20" t="n">
-        <v>1744.26120212753</v>
+        <v>1092.802214294877</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.351417301975</v>
+        <v>656.8924294693211</v>
       </c>
       <c r="E20" t="n">
-        <v>874.5766724602698</v>
+        <v>223.1176846276163</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y20" t="n">
-        <v>2182.403674944107</v>
+        <v>1957.244257596361</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C22" t="n">
-        <v>616.0817647851416</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D22" t="n">
-        <v>450.2037719866643</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>280.4457682374015</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092375</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827552</v>
+        <v>992.6864461505243</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789086</v>
+        <v>1120.185357954414</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2036.923850175409</v>
+        <v>2065.288588445679</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.781377358833</v>
+        <v>1627.146115629102</v>
       </c>
       <c r="D23" t="n">
-        <v>1162.871592533277</v>
+        <v>1191.236330803547</v>
       </c>
       <c r="E23" t="n">
-        <v>729.0968476915723</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="F23" t="n">
-        <v>729.0968476915723</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G23" t="n">
         <v>329.5941563710495</v>
       </c>
       <c r="H23" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I23" t="n">
         <v>131.0725551661405</v>
@@ -6010,31 +6010,31 @@
         <v>2490.990538971451</v>
       </c>
       <c r="Q23" t="n">
-        <v>2707.7995967108</v>
+        <v>2707.799596710799</v>
       </c>
       <c r="R23" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S23" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T23" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U23" t="n">
-        <v>2993.630245747997</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V23" t="n">
-        <v>2993.630245747997</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="W23" t="n">
-        <v>2588.77479115903</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="X23" t="n">
-        <v>2169.632327738341</v>
+        <v>2473.574712146026</v>
       </c>
       <c r="Y23" t="n">
-        <v>2036.923850175409</v>
+        <v>2065.288588445679</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>176.1863553587068</v>
       </c>
       <c r="G24" t="n">
-        <v>91.81525494836369</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H24" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I24" t="n">
         <v>94.08934108643605</v>
@@ -6126,58 +6126,58 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C25" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D25" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743843</v>
       </c>
       <c r="E25" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251215</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G25" t="n">
-        <v>255.3119520993958</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H25" t="n">
         <v>122.9678914787119</v>
       </c>
       <c r="I25" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J25" t="n">
         <v>205.3579537818329</v>
       </c>
       <c r="K25" t="n">
-        <v>576.9165089205267</v>
+        <v>399.0682623577786</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.997192306786</v>
+        <v>941.1489457440376</v>
       </c>
       <c r="M25" t="n">
-        <v>1709.085451826228</v>
+        <v>1531.23720526348</v>
       </c>
       <c r="N25" t="n">
-        <v>2278.843166787762</v>
+        <v>2100.994920225015</v>
       </c>
       <c r="O25" t="n">
-        <v>2806.62282566289</v>
+        <v>2638.430050798558</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
       </c>
       <c r="R25" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S25" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T25" t="n">
-        <v>2606.956483155638</v>
+        <v>2606.956483155637</v>
       </c>
       <c r="U25" t="n">
         <v>2328.569851204381</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1139.658562493335</v>
+        <v>1295.707064877591</v>
       </c>
       <c r="C26" t="n">
-        <v>701.5160896767579</v>
+        <v>857.5645920610141</v>
       </c>
       <c r="D26" t="n">
-        <v>701.5160896767579</v>
+        <v>857.5645920610141</v>
       </c>
       <c r="E26" t="n">
-        <v>267.7413448350531</v>
+        <v>857.5645920610141</v>
       </c>
       <c r="F26" t="n">
-        <v>267.7413448350531</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G26" t="n">
         <v>59.87260491495994</v>
@@ -6226,52 +6226,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821495</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>1788.635560339265</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2055.735851518534</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
-        <v>2796.659337341163</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2734.559554269511</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V26" t="n">
-        <v>2371.942604203337</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W26" t="n">
-        <v>1967.087149614371</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="X26" t="n">
-        <v>1547.944686193681</v>
+        <v>1295.707064877591</v>
       </c>
       <c r="Y26" t="n">
-        <v>1139.658562493335</v>
+        <v>1295.707064877591</v>
       </c>
     </row>
     <row r="27">
@@ -6363,46 +6363,46 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728608</v>
       </c>
       <c r="D28" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743836</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251208</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868771</v>
       </c>
       <c r="G28" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993955</v>
       </c>
       <c r="H28" t="n">
-        <v>122.9678914787117</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I28" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K28" t="n">
-        <v>219.7541432517691</v>
+        <v>302.1580543493911</v>
       </c>
       <c r="L28" t="n">
-        <v>761.8348266380279</v>
+        <v>844.2387377356501</v>
       </c>
       <c r="M28" t="n">
-        <v>1351.92308615747</v>
+        <v>1434.326997255093</v>
       </c>
       <c r="N28" t="n">
-        <v>1921.680801119005</v>
+        <v>2004.084712216627</v>
       </c>
       <c r="O28" t="n">
-        <v>2459.115931692548</v>
+        <v>2541.51984279017</v>
       </c>
       <c r="P28" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6411,25 +6411,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S28" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T28" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U28" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V28" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X28" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2308.259983784603</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C29" t="n">
-        <v>1870.117510968027</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.739022124069</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E29" t="n">
-        <v>1156.964277282364</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="H29" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I29" t="n">
         <v>131.0725551661405</v>
@@ -6466,49 +6466,49 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>960.2456682417247</v>
+        <v>976.4735309700046</v>
       </c>
       <c r="L29" t="n">
-        <v>1253.361543105625</v>
+        <v>1269.589405833905</v>
       </c>
       <c r="M29" t="n">
-        <v>1579.509431274412</v>
+        <v>1595.737294002692</v>
       </c>
       <c r="N29" t="n">
-        <v>1910.93473325089</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O29" t="n">
-        <v>2223.890247792182</v>
+        <v>2240.118110520462</v>
       </c>
       <c r="P29" t="n">
-        <v>2490.990538971451</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q29" t="n">
-        <v>2707.7995967108</v>
+        <v>2707.799596710799</v>
       </c>
       <c r="R29" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2734.559554269511</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="V29" t="n">
-        <v>2734.559554269511</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="W29" t="n">
-        <v>2734.559554269511</v>
+        <v>2694.093184484308</v>
       </c>
       <c r="X29" t="n">
-        <v>2734.559554269511</v>
+        <v>2274.950721063618</v>
       </c>
       <c r="Y29" t="n">
-        <v>2734.559554269511</v>
+        <v>1866.664597363272</v>
       </c>
     </row>
     <row r="30">
@@ -6533,25 +6533,25 @@
         <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>91.81525494836369</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H30" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I30" t="n">
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6609,7 +6609,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
@@ -6618,37 +6618,37 @@
         <v>122.9678914787119</v>
       </c>
       <c r="I31" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J31" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>490.3368237558368</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>1032.417507142096</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1622.505766661538</v>
+        <v>1709.085451826228</v>
       </c>
       <c r="N31" t="n">
-        <v>2192.263481623072</v>
+        <v>2278.843166787762</v>
       </c>
       <c r="O31" t="n">
-        <v>2729.698612196616</v>
+        <v>2396.609048135524</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840573</v>
+        <v>2844.88499828355</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
       </c>
       <c r="R31" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S31" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T31" t="n">
         <v>2606.956483155638</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2464.791279766202</v>
+        <v>1491.095135937343</v>
       </c>
       <c r="C32" t="n">
-        <v>2026.648806949625</v>
+        <v>1052.952663120766</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.739022124069</v>
+        <v>617.0428782952108</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.964277282364</v>
+        <v>617.0428782952108</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915723</v>
+        <v>189.1754487044186</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6703,22 +6703,22 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>976.4735309700051</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
-        <v>1269.589405833906</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1595.737294002693</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1927.16259597917</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>2240.118110520463</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
         <v>2707.7995967108</v>
@@ -6727,25 +6727,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2869.646734355169</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="V32" t="n">
-        <v>2869.646734355169</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="W32" t="n">
-        <v>2464.791279766202</v>
+        <v>2336.53716984294</v>
       </c>
       <c r="X32" t="n">
-        <v>2464.791279766202</v>
+        <v>1917.394706422251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2464.791279766202</v>
+        <v>1917.394706422251</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1859.550434580796</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C33" t="n">
-        <v>1753.093973417439</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D33" t="n">
-        <v>1658.003684563992</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E33" t="n">
-        <v>1563.883269890945</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F33" t="n">
-        <v>1480.499431507107</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>1396.128331096764</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H33" t="n">
-        <v>1364.18568106336</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>1398.402417234837</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>1492.295756581304</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>1652.774428635474</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>1868.557807510496</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
-        <v>2120.366832813194</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N33" t="n">
-        <v>2378.840493734514</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O33" t="n">
-        <v>2615.293396549044</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P33" t="n">
-        <v>2805.06769711385</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q33" t="n">
-        <v>2931.926791322084</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R33" t="n">
-        <v>2993.630245747997</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S33" t="n">
-        <v>2949.009215147731</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T33" t="n">
-        <v>2822.917660023384</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U33" t="n">
-        <v>2646.647822847265</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V33" t="n">
-        <v>2447.530304909264</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W33" t="n">
-        <v>2262.207550642459</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X33" t="n">
-        <v>2107.340114881339</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y33" t="n">
-        <v>1980.854335660559</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="34">
@@ -6837,22 +6837,22 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D34" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743842</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G34" t="n">
         <v>255.311952099396</v>
       </c>
       <c r="H34" t="n">
-        <v>122.9678914787117</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I34" t="n">
         <v>59.87260491495994</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1547.185999158423</v>
+        <v>1952.04145374739</v>
       </c>
       <c r="C35" t="n">
-        <v>1109.043526341847</v>
+        <v>1513.898980930814</v>
       </c>
       <c r="D35" t="n">
-        <v>1109.043526341847</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E35" t="n">
-        <v>675.2687815001418</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6976,13 +6976,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>1955.47212285877</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X35" t="n">
-        <v>1955.47212285877</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y35" t="n">
-        <v>1547.185999158423</v>
+        <v>1952.04145374739</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7055,13 +7055,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>750.041858240633</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C37" t="n">
-        <v>750.041858240633</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>584.1638654421557</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.698306725808</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1414.6719023121</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.280147645512</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>941.8604769596202</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1355.033554032792</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="C38" t="n">
-        <v>916.8910812162151</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D38" t="n">
-        <v>480.9812963906596</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895474</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7174,16 +7174,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X38" t="n">
-        <v>2189.619248218046</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y38" t="n">
-        <v>1781.3331245177</v>
+        <v>2101.256885969251</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>471.655226289377</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C40" t="n">
-        <v>299.093514772602</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D40" t="n">
-        <v>133.2155219741246</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E40" t="n">
-        <v>47.20655154895474</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
         <v>47.20655154895474</v>
@@ -7332,25 +7332,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>828.1746199579906</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2354.142798572221</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2111.895574475627</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942559</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083642</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>661.2775954676234</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C41" t="n">
-        <v>223.1351226510467</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D41" t="n">
-        <v>223.1351226510467</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E41" t="n">
-        <v>223.1351226510467</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>223.1351226510467</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7411,16 +7411,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W41" t="n">
-        <v>1915.005753073567</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X41" t="n">
-        <v>1495.863289652878</v>
+        <v>1282.862796160616</v>
       </c>
       <c r="Y41" t="n">
-        <v>1087.577165952531</v>
+        <v>874.5766724602698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>100.9350064316459</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>100.9350064316459</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895474</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1893.561637177626</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="C44" t="n">
-        <v>1455.41916436105</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D44" t="n">
-        <v>1019.509379535494</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E44" t="n">
-        <v>585.7346346937893</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7648,16 +7648,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>2319.861207662534</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="Y44" t="n">
-        <v>2319.861207662534</v>
+        <v>744.7955325958366</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.196554659879</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>856.6348431431041</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>690.7568503446269</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E46" t="n">
-        <v>520.9988465953642</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7812,16 +7812,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>1329.17407462327</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N46" t="n">
-        <v>1898.931789584804</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P46" t="n">
         <v>2274.089213540314</v>
@@ -7836,22 +7836,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2252.808511274623</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1965.853003145054</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1693.826598731346</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.434844064758</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1221.015173378866</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.691841844508</v>
       </c>
       <c r="J6" t="n">
-        <v>11.30360352796968</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.809192913902706</v>
       </c>
       <c r="R6" t="n">
-        <v>4.19743123044131</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8382,19 +8382,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>10.44960568471751</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.4349728345372768</v>
       </c>
       <c r="O7" t="n">
-        <v>10.74826398523141</v>
+        <v>10.74826398523121</v>
       </c>
       <c r="P7" t="n">
-        <v>1.129023009005863</v>
+        <v>11.14365585918588</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.86484077010252</v>
+        <v>11.86484077010231</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>21.75440028723776</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8613,13 +8613,13 @@
         <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.308022535245563</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>32.53395007869803</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>32.05661388637265</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.52930186393523</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638102</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>141.4680432173446</v>
       </c>
       <c r="M13" t="n">
         <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>70.05088382580993</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>175.7179764032068</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042864</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042864</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>453.2517688993041</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>16.39178053361684</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9798,7 +9798,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>97.88909899837125</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9810,13 +9810,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>414.1553308357229</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>545.8002937490523</v>
+        <v>187.2544722033713</v>
       </c>
       <c r="R26" t="n">
-        <v>81.1053779017102</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>4.217953603098778</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>97.88909899837154</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>16.39178053361604</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.39178053361684</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10284,13 +10284,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>77.7012257235092</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>63.13826621921544</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>16.3917805336165</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464598</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>141.4680432173446</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
         <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>158.2045317475397</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.548759611116335</v>
+        <v>8.548759611116578</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>18.0628718083578</v>
       </c>
       <c r="E5" t="n">
-        <v>15.9491822243454</v>
+        <v>22.56709229890365</v>
       </c>
       <c r="F5" t="n">
-        <v>16.71885020050001</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.463223617540049</v>
+        <v>1.463223617540292</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>57.92552441760097</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,16 +23317,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>195.5603986603117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>88.06258942971537</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>112.1772838329511</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>335.3498018237962</v>
       </c>
       <c r="X14" t="n">
-        <v>381.7607526166257</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>140.4092215608039</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.74153010489351</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>287.563679451265</v>
       </c>
       <c r="F17" t="n">
-        <v>189.2287964706122</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>81.67066052189062</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>54.74153010489451</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>249.4367335470094</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24028,7 +24028,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>228.0585989847499</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>75.05377899077628</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>93.63231361822102</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>406.2912901871622</v>
       </c>
       <c r="Y23" t="n">
-        <v>272.8218696760405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24451,13 +24451,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>29.38135242760836</v>
       </c>
       <c r="G26" t="n">
-        <v>189.7176118864254</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>351.6499900101131</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>154.9659830217822</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>267.4978490557536</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>133.7363082848011</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>71.49417963139371</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>68.83148358473784</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.9913887515609</v>
+        <v>81.67066052189062</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>72.93489847187811</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>286.0114989364396</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>136.8593420240467</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,10 +25639,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>221.3383790162465</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>357.7738310237516</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>77.82944968061307</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>257.8515264887133</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>285.9536173888157</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>81.56722465832064</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26076,10 +26076,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>169.1588901203621</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>336721.0427854435</v>
+        <v>336721.0427854436</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>336721.0427854434</v>
+        <v>336721.0427854436</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>427946.361937121</v>
+        <v>427946.3619371209</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>427946.361937121</v>
+        <v>427946.3619371209</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>427946.3619371209</v>
+        <v>427946.361937121</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>379453.8588450989</v>
       </c>
       <c r="C2" t="n">
-        <v>382474.6029865406</v>
+        <v>382474.6029865405</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205463</v>
       </c>
       <c r="E2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="F2" t="n">
-        <v>228081.478386185</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="G2" t="n">
-        <v>228081.478386185</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="H2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="I2" t="n">
-        <v>274231.33437242</v>
+        <v>274231.3343724199</v>
       </c>
       <c r="J2" t="n">
         <v>274231.3343724199</v>
       </c>
       <c r="K2" t="n">
-        <v>274231.3343724199</v>
+        <v>274231.33437242</v>
       </c>
       <c r="L2" t="n">
-        <v>274231.3343724199</v>
+        <v>274231.33437242</v>
       </c>
       <c r="M2" t="n">
-        <v>228081.478386185</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="N2" t="n">
         <v>228081.4783861851</v>
       </c>
       <c r="O2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="P2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.478386185</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14144.82719286306</v>
+        <v>14144.8271928628</v>
       </c>
       <c r="D3" t="n">
-        <v>27489.28712274771</v>
+        <v>27489.28712274795</v>
       </c>
       <c r="E3" t="n">
         <v>512485.5095559817</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426838</v>
+        <v>42102.11971426829</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3471.332014400355</v>
+        <v>3471.332014400263</v>
       </c>
       <c r="L3" t="n">
-        <v>7042.810807378955</v>
+        <v>7042.810807379046</v>
       </c>
       <c r="M3" t="n">
-        <v>97299.51484534092</v>
+        <v>97299.51484534095</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>297208.51664346</v>
+        <v>297208.5166434599</v>
       </c>
       <c r="D4" t="n">
         <v>294121.7142251048</v>
@@ -26435,25 +26435,25 @@
         <v>14728.7909942616</v>
       </c>
       <c r="H4" t="n">
+        <v>14728.79099426161</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40805.18316884373</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40805.18316884375</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40805.18316884371</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40805.18316884374</v>
+      </c>
+      <c r="M4" t="n">
         <v>14728.7909942616</v>
       </c>
-      <c r="I4" t="n">
-        <v>40805.18316884375</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40805.18316884372</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40805.18316884375</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40805.18316884373</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14728.79099426161</v>
-      </c>
       <c r="N4" t="n">
-        <v>14728.79099426161</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="O4" t="n">
         <v>14728.7909942616</v>
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34681.96937349493</v>
+        <v>34681.96937349491</v>
       </c>
       <c r="D5" t="n">
         <v>36853.56981021012</v>
@@ -26481,13 +26481,13 @@
         <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="I5" t="n">
         <v>55677.28176780177</v>
@@ -26502,7 +26502,7 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326607</v>
+        <v>47063.63581576444</v>
       </c>
       <c r="C6" t="n">
-        <v>36439.28977672273</v>
+        <v>36417.79941832978</v>
       </c>
       <c r="D6" t="n">
-        <v>30242.23576248364</v>
+        <v>30242.2357624834</v>
       </c>
       <c r="E6" t="n">
-        <v>-345183.903373696</v>
+        <v>-345737.783816918</v>
       </c>
       <c r="F6" t="n">
-        <v>167301.6061822856</v>
+        <v>166747.7257390638</v>
       </c>
       <c r="G6" t="n">
-        <v>167301.6061822856</v>
+        <v>166747.7257390638</v>
       </c>
       <c r="H6" t="n">
-        <v>167301.6061822857</v>
+        <v>166747.7257390638</v>
       </c>
       <c r="I6" t="n">
-        <v>135646.7497215061</v>
+        <v>135252.0067127195</v>
       </c>
       <c r="J6" t="n">
-        <v>177748.8694357744</v>
+        <v>177354.1264269878</v>
       </c>
       <c r="K6" t="n">
-        <v>174277.5374213741</v>
+        <v>173882.7944125876</v>
       </c>
       <c r="L6" t="n">
-        <v>170706.0586283955</v>
+        <v>170311.3156196088</v>
       </c>
       <c r="M6" t="n">
-        <v>70002.09133694469</v>
+        <v>69448.21089372286</v>
       </c>
       <c r="N6" t="n">
-        <v>167301.6061822857</v>
+        <v>166747.7257390638</v>
       </c>
       <c r="O6" t="n">
-        <v>167301.6061822857</v>
+        <v>166747.7257390638</v>
       </c>
       <c r="P6" t="n">
-        <v>167301.6061822857</v>
+        <v>166747.7257390637</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.74817482675378</v>
+        <v>10.74817482675359</v>
       </c>
       <c r="D3" t="n">
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26801,28 +26801,28 @@
         <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="I4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
       </c>
       <c r="K4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="L4" t="n">
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.74817482675378</v>
+        <v>10.74817482675359</v>
       </c>
       <c r="D3" t="n">
-        <v>22.00492723381782</v>
+        <v>22.00492723381801</v>
       </c>
       <c r="E3" t="n">
         <v>433.9488260326495</v>
@@ -27014,10 +27014,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="D4" t="n">
-        <v>27.827187878585</v>
+        <v>27.82718787858524</v>
       </c>
       <c r="E4" t="n">
         <v>548.7668913144068</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.3256670750651</v>
+        <v>158.3256670750648</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894199</v>
       </c>
       <c r="L4" t="n">
-        <v>27.827187878585</v>
+        <v>27.82718787858536</v>
       </c>
       <c r="M4" t="n">
-        <v>390.4412242393418</v>
+        <v>390.4412242393419</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="L4" t="n">
-        <v>27.827187878585</v>
+        <v>27.82718787858524</v>
       </c>
       <c r="M4" t="n">
         <v>548.7668913144068</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>81.83073584638467</v>
+        <v>81.83073584638468</v>
       </c>
       <c r="T5" t="n">
         <v>217.6774085831124</v>
@@ -27712,7 +27712,7 @@
         <v>84.50812012081286</v>
       </c>
       <c r="H6" t="n">
-        <v>41.09501753960519</v>
+        <v>41.0950175396052</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,16 +27748,16 @@
         <v>62.39146317240922</v>
       </c>
       <c r="T6" t="n">
-        <v>115.2958574159716</v>
+        <v>115.2958574159718</v>
       </c>
       <c r="U6" t="n">
-        <v>161.0838453929532</v>
+        <v>161.0838453929534</v>
       </c>
       <c r="V6" t="n">
-        <v>185.2462751578162</v>
+        <v>185.2462751578164</v>
       </c>
       <c r="W6" t="n">
-        <v>169.9817115551956</v>
+        <v>169.9817115551958</v>
       </c>
       <c r="X6" t="n">
         <v>153.3187614035088</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.4126173628549</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>150.7313977015502</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>156.1803561109659</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>161.4521683289192</v>
       </c>
       <c r="G7" t="n">
         <v>163.915980269825</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.844344753835809</v>
+        <v>6.844344753836069</v>
       </c>
       <c r="S7" t="n">
-        <v>157.3111804060835</v>
+        <v>143.8233652371414</v>
       </c>
       <c r="T7" t="n">
         <v>243.3378381512871</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.2654063782284</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>83.70060738470343</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>56.11184910989698</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28025,13 +28025,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>146.0340017035184</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888225</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
         <v>275.6454491228296</v>
@@ -28073,13 +28073,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>225.0955395699384</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04320874302212572</v>
+        <v>0.04320874302212494</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4425115394753451</v>
+        <v>0.4425115394753372</v>
       </c>
       <c r="I5" t="n">
-        <v>1.665805065360503</v>
+        <v>1.665805065360473</v>
       </c>
       <c r="J5" t="n">
-        <v>3.667288053074146</v>
+        <v>3.66728805307408</v>
       </c>
       <c r="K5" t="n">
-        <v>5.496314145200729</v>
+        <v>5.49631414520063</v>
       </c>
       <c r="L5" t="n">
-        <v>6.81866371446411</v>
+        <v>6.818663714463987</v>
       </c>
       <c r="M5" t="n">
-        <v>7.587077198183838</v>
+        <v>7.587077198183701</v>
       </c>
       <c r="N5" t="n">
-        <v>7.709844039295453</v>
+        <v>7.709844039295315</v>
       </c>
       <c r="O5" t="n">
-        <v>7.28018710086919</v>
+        <v>7.28018710086906</v>
       </c>
       <c r="P5" t="n">
-        <v>6.213471257510461</v>
+        <v>6.213471257510349</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.666058148030582</v>
+        <v>4.666058148030498</v>
       </c>
       <c r="R5" t="n">
-        <v>2.714211203863607</v>
+        <v>2.714211203863558</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9846192316166908</v>
+        <v>0.9846192316166731</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1891462725793554</v>
+        <v>0.189146272579352</v>
       </c>
       <c r="U5" t="n">
-        <v>0.003456699441770057</v>
+        <v>0.003456699441769994</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02311871566509304</v>
+        <v>0.02311871566509262</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2232781223444512</v>
+        <v>0.2232781223444472</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7959733244341245</v>
+        <v>0.7959733244341101</v>
       </c>
       <c r="J6" t="n">
-        <v>2.184211640972672</v>
+        <v>2.184211640972633</v>
       </c>
       <c r="K6" t="n">
-        <v>3.733165590533905</v>
+        <v>3.733165590533838</v>
       </c>
       <c r="L6" t="n">
-        <v>5.019701837721189</v>
+        <v>5.019701837721098</v>
       </c>
       <c r="M6" t="n">
-        <v>5.857755280580809</v>
+        <v>5.857755280580704</v>
       </c>
       <c r="N6" t="n">
-        <v>6.012792632562948</v>
+        <v>6.01279263256284</v>
       </c>
       <c r="O6" t="n">
-        <v>5.500530564404833</v>
+        <v>5.500530564404734</v>
       </c>
       <c r="P6" t="n">
-        <v>4.41466071327553</v>
+        <v>4.41466071327545</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.951083775073982</v>
+        <v>2.951083775073929</v>
       </c>
       <c r="R6" t="n">
-        <v>1.435388328750251</v>
+        <v>1.435388328750225</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4294200036915305</v>
+        <v>0.4294200036915228</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09318464779044076</v>
+        <v>0.09318464779043908</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001520968135861385</v>
+        <v>0.001520968135861357</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01938195460562157</v>
+        <v>0.01938195460562122</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1723231964027083</v>
+        <v>0.1723231964027052</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5828682348672379</v>
+        <v>0.5828682348672274</v>
       </c>
       <c r="J7" t="n">
-        <v>1.370304190617445</v>
+        <v>1.37030419061742</v>
       </c>
       <c r="K7" t="n">
-        <v>2.251830725998578</v>
+        <v>2.251830725998538</v>
       </c>
       <c r="L7" t="n">
-        <v>2.881568051093956</v>
+        <v>2.881568051093904</v>
       </c>
       <c r="M7" t="n">
-        <v>3.038209484224843</v>
+        <v>3.038209484224788</v>
       </c>
       <c r="N7" t="n">
-        <v>2.965967653422074</v>
+        <v>2.96596765342202</v>
       </c>
       <c r="O7" t="n">
-        <v>2.739551183710948</v>
+        <v>2.739551183710899</v>
       </c>
       <c r="P7" t="n">
-        <v>2.344159309756266</v>
+        <v>2.344159309756224</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.622974398839821</v>
+        <v>1.622974398839792</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8714831589036751</v>
+        <v>0.8714831589036593</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3377746088997867</v>
+        <v>0.3377746088997806</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08281380604220123</v>
+        <v>0.08281380604219973</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001057197523942996</v>
+        <v>0.001057197523942977</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32332,19 +32332,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32551,7 +32551,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,7 +32563,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
@@ -32803,10 +32803,10 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -33046,7 +33046,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233624</v>
@@ -33262,7 +33262,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33280,7 +33280,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33520,7 +33520,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233624</v>
@@ -33991,7 +33991,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -34444,7 +34444,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34932,34 +34932,34 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.253183586229106</v>
+        <v>1.253183586229076</v>
       </c>
       <c r="J5" t="n">
-        <v>3.667288053074145</v>
+        <v>3.667288053074081</v>
       </c>
       <c r="K5" t="n">
-        <v>5.496314145200728</v>
+        <v>5.49631414520063</v>
       </c>
       <c r="L5" t="n">
-        <v>6.818663714464115</v>
+        <v>6.818663714463986</v>
       </c>
       <c r="M5" t="n">
-        <v>7.587077198183835</v>
+        <v>7.5870771981837</v>
       </c>
       <c r="N5" t="n">
-        <v>7.709844039295454</v>
+        <v>7.709844039295312</v>
       </c>
       <c r="O5" t="n">
-        <v>7.280187100869192</v>
+        <v>7.280187100869064</v>
       </c>
       <c r="P5" t="n">
-        <v>6.213471257510463</v>
+        <v>6.213471257510349</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.666058148030579</v>
+        <v>4.666058148030494</v>
       </c>
       <c r="R5" t="n">
-        <v>2.714211203863606</v>
+        <v>2.714211203863563</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7959733244341245</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="J6" t="n">
-        <v>13.48781516894235</v>
+        <v>2.184211640972634</v>
       </c>
       <c r="K6" t="n">
-        <v>3.733165590533906</v>
+        <v>3.733165590533837</v>
       </c>
       <c r="L6" t="n">
-        <v>5.01970183772119</v>
+        <v>5.019701837721097</v>
       </c>
       <c r="M6" t="n">
-        <v>5.857755280580808</v>
+        <v>5.857755280580704</v>
       </c>
       <c r="N6" t="n">
-        <v>6.012792632562949</v>
+        <v>6.012792632562839</v>
       </c>
       <c r="O6" t="n">
-        <v>5.500530564404833</v>
+        <v>5.500530564404734</v>
       </c>
       <c r="P6" t="n">
-        <v>4.414660713275531</v>
+        <v>4.414660713275453</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.951083775073982</v>
+        <v>5.760276688976631</v>
       </c>
       <c r="R6" t="n">
-        <v>5.63281955919156</v>
+        <v>1.435388328750228</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.370304190617445</v>
+        <v>1.37030419061742</v>
       </c>
       <c r="K7" t="n">
-        <v>2.251830725998578</v>
+        <v>2.251830725998537</v>
       </c>
       <c r="L7" t="n">
-        <v>2.881568051093956</v>
+        <v>2.881568051093904</v>
       </c>
       <c r="M7" t="n">
-        <v>13.48781516894235</v>
+        <v>3.038209484224788</v>
       </c>
       <c r="N7" t="n">
-        <v>2.965967653422073</v>
+        <v>3.400940487959296</v>
       </c>
       <c r="O7" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="P7" t="n">
-        <v>3.473182318762127</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.48781516894235</v>
+        <v>13.48781516894211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>28.41038681069788</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>15.29662563687356</v>
+        <v>37.05102592411131</v>
       </c>
       <c r="M9" t="n">
         <v>17.85044062301152</v>
@@ -35333,25 +35333,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739423</v>
+        <v>10.17006588498499</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829314</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154682</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419708</v>
+        <v>9.038245360419694</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>8.348282472750299</v>
       </c>
       <c r="P10" t="n">
-        <v>38.67269972973595</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>4.945718411146316</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35488,10 +35488,10 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.9630089646691</v>
@@ -35503,10 +35503,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35573,19 +35573,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>266.5900650540092</v>
       </c>
       <c r="M13" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>198.8376634256983</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>300.8399982398713</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>281.852445040951</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
         <v>575.5128433954892</v>
@@ -36059,7 +36059,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>171.0631211972095</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36120,13 +36120,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>281.852445040951</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>585.1753975240813</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36378,7 +36378,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>218.999048221564</v>
+        <v>218.9990482215635</v>
       </c>
       <c r="R23" t="n">
         <v>288.7178273103004</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36451,10 +36451,10 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -36518,25 +36518,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>195.6669783595412</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>533.1107665405329</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,31 +36594,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>748.4075614369995</v>
+        <v>389.8617398913184</v>
       </c>
       <c r="R26" t="n">
-        <v>198.9605135422562</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36694,7 +36694,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233622</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9958329642687</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954892</v>
@@ -36770,10 +36770,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>199.676024430375</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36834,10 +36834,10 @@
         <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>255.0500132398998</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,13 +36846,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.999048221564</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>288.7178273103004</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,13 +36922,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
@@ -37004,13 +37004,13 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P31" t="n">
-        <v>179.4881511555127</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>133.610257361292</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37071,10 +37071,10 @@
         <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>255.0500132399003</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,13 +37083,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37162,16 +37162,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>296.1475206512696</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37560,13 +37560,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,13 +37639,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>266.5900650540092</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,13 +37779,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
-        <v>277.1599674523495</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>258.5173486362903</v>
       </c>
       <c r="Q46" t="n">
         <v>70.4719911420766</v>
